--- a/natmiOut/OldD4/LR-pairs_lrc2p/Dll4-Notch2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Dll4-Notch2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,15 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,15 +95,6 @@
   </si>
   <si>
     <t>Notch2</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>38.2818759098307</v>
+        <v>38.80310266666667</v>
       </c>
       <c r="H2">
-        <v>38.2818759098307</v>
+        <v>116.409308</v>
       </c>
       <c r="I2">
-        <v>0.990324368430518</v>
+        <v>0.9789895780174939</v>
       </c>
       <c r="J2">
-        <v>0.990324368430518</v>
+        <v>0.9822662217176463</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.68374283130553</v>
+        <v>1.808665</v>
       </c>
       <c r="N2">
-        <v>1.68374283130553</v>
+        <v>5.425995</v>
       </c>
       <c r="O2">
-        <v>0.01276667203748057</v>
+        <v>0.01261203239065773</v>
       </c>
       <c r="P2">
-        <v>0.01276667203748057</v>
+        <v>0.01316260230515319</v>
       </c>
       <c r="Q2">
-        <v>64.45683413210531</v>
+        <v>70.18181368460668</v>
       </c>
       <c r="R2">
-        <v>64.45683413210531</v>
+        <v>631.63632316146</v>
       </c>
       <c r="S2">
-        <v>0.0126431464224775</v>
+        <v>0.01234704826807298</v>
       </c>
       <c r="T2">
-        <v>0.0126431464224775</v>
+        <v>0.01292917963425481</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>38.2818759098307</v>
+        <v>38.80310266666667</v>
       </c>
       <c r="H3">
-        <v>38.2818759098307</v>
+        <v>116.409308</v>
       </c>
       <c r="I3">
-        <v>0.990324368430518</v>
+        <v>0.9789895780174939</v>
       </c>
       <c r="J3">
-        <v>0.990324368430518</v>
+        <v>0.9822662217176463</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.3606738171925</v>
+        <v>21.254561</v>
       </c>
       <c r="N3">
-        <v>20.3606738171925</v>
+        <v>63.763683</v>
       </c>
       <c r="O3">
-        <v>0.1543810849574131</v>
+        <v>0.1482105374854993</v>
       </c>
       <c r="P3">
-        <v>0.1543810849574131</v>
+        <v>0.1546805702623864</v>
       </c>
       <c r="Q3">
-        <v>779.4447885103023</v>
+        <v>824.7429126179293</v>
       </c>
       <c r="R3">
-        <v>779.4447885103023</v>
+        <v>7422.686213561365</v>
       </c>
       <c r="S3">
-        <v>0.1528873504580682</v>
+        <v>0.1450965715506749</v>
       </c>
       <c r="T3">
-        <v>0.1528873504580682</v>
+        <v>0.1519374993247652</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>38.2818759098307</v>
+        <v>38.80310266666667</v>
       </c>
       <c r="H4">
-        <v>38.2818759098307</v>
+        <v>116.409308</v>
       </c>
       <c r="I4">
-        <v>0.990324368430518</v>
+        <v>0.9789895780174939</v>
       </c>
       <c r="J4">
-        <v>0.990324368430518</v>
+        <v>0.9822662217176463</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>37.0026247316362</v>
+        <v>46.05851666666666</v>
       </c>
       <c r="N4">
-        <v>37.0026247316362</v>
+        <v>138.17555</v>
       </c>
       <c r="O4">
-        <v>0.2805656337128871</v>
+        <v>0.3211714187346186</v>
       </c>
       <c r="P4">
-        <v>0.2805656337128871</v>
+        <v>0.3351919441403484</v>
       </c>
       <c r="Q4">
-        <v>1416.52988831453</v>
+        <v>1787.213350891044</v>
       </c>
       <c r="R4">
-        <v>1416.52988831453</v>
+        <v>16084.9201580194</v>
       </c>
       <c r="S4">
-        <v>0.2778509840100229</v>
+        <v>0.3144234716982841</v>
       </c>
       <c r="T4">
-        <v>0.2778509840100229</v>
+        <v>0.3292477245209324</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>38.2818759098307</v>
+        <v>38.80310266666667</v>
       </c>
       <c r="H5">
-        <v>38.2818759098307</v>
+        <v>116.409308</v>
       </c>
       <c r="I5">
-        <v>0.990324368430518</v>
+        <v>0.9789895780174939</v>
       </c>
       <c r="J5">
-        <v>0.990324368430518</v>
+        <v>0.9822662217176463</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.9622254901925</v>
+        <v>56.290605</v>
       </c>
       <c r="N5">
-        <v>54.9622254901925</v>
+        <v>168.871815</v>
       </c>
       <c r="O5">
-        <v>0.4167410213941487</v>
+        <v>0.3925209663203081</v>
       </c>
       <c r="P5">
-        <v>0.4167410213941487</v>
+        <v>0.4096562089339196</v>
       </c>
       <c r="Q5">
-        <v>2104.057095943683</v>
+        <v>2184.25012498378</v>
       </c>
       <c r="R5">
-        <v>2104.057095943683</v>
+        <v>19658.25112485402</v>
       </c>
       <c r="S5">
-        <v>0.4127087888112493</v>
+        <v>0.3842739351809374</v>
       </c>
       <c r="T5">
-        <v>0.4127087888112493</v>
+        <v>0.4023914565526959</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>38.2818759098307</v>
+        <v>38.80310266666667</v>
       </c>
       <c r="H6">
-        <v>38.2818759098307</v>
+        <v>116.409308</v>
       </c>
       <c r="I6">
-        <v>0.990324368430518</v>
+        <v>0.9789895780174939</v>
       </c>
       <c r="J6">
-        <v>0.990324368430518</v>
+        <v>0.9822662217176463</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.8765391065461</v>
+        <v>17.995546</v>
       </c>
       <c r="N6">
-        <v>17.8765391065461</v>
+        <v>35.991092</v>
       </c>
       <c r="O6">
-        <v>0.1355455878980706</v>
+        <v>0.1254850450689161</v>
       </c>
       <c r="P6">
-        <v>0.1355455878980706</v>
+        <v>0.08730867435819248</v>
       </c>
       <c r="Q6">
-        <v>684.3474517740336</v>
+        <v>698.2830189807228</v>
       </c>
       <c r="R6">
-        <v>684.3474517740336</v>
+        <v>4189.698113884337</v>
       </c>
       <c r="S6">
-        <v>0.1342340987287</v>
+        <v>0.1228485513195244</v>
       </c>
       <c r="T6">
-        <v>0.1342340987287</v>
+        <v>0.08576036168499808</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.374020208832357</v>
+        <v>0.1459843333333333</v>
       </c>
       <c r="H7">
-        <v>0.374020208832357</v>
+        <v>0.437953</v>
       </c>
       <c r="I7">
-        <v>0.009675631569482103</v>
+        <v>0.003683136941776988</v>
       </c>
       <c r="J7">
-        <v>0.009675631569482103</v>
+        <v>0.003695464271636322</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.68374283130553</v>
+        <v>1.808665</v>
       </c>
       <c r="N7">
-        <v>1.68374283130553</v>
+        <v>5.425995</v>
       </c>
       <c r="O7">
-        <v>0.01276667203748057</v>
+        <v>0.01261203239065773</v>
       </c>
       <c r="P7">
-        <v>0.01276667203748057</v>
+        <v>0.01316260230515319</v>
       </c>
       <c r="Q7">
-        <v>0.6297538453848783</v>
+        <v>0.2640367542483333</v>
       </c>
       <c r="R7">
-        <v>0.6297538453848783</v>
+        <v>2.376330788235</v>
       </c>
       <c r="S7">
-        <v>0.0001235256150030714</v>
+        <v>4.645184240891944E-05</v>
       </c>
       <c r="T7">
-        <v>0.0001235256150030714</v>
+        <v>4.864192654045152E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.374020208832357</v>
+        <v>0.1459843333333333</v>
       </c>
       <c r="H8">
-        <v>0.374020208832357</v>
+        <v>0.437953</v>
       </c>
       <c r="I8">
-        <v>0.009675631569482103</v>
+        <v>0.003683136941776988</v>
       </c>
       <c r="J8">
-        <v>0.009675631569482103</v>
+        <v>0.003695464271636322</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.3606738171925</v>
+        <v>21.254561</v>
       </c>
       <c r="N8">
-        <v>20.3606738171925</v>
+        <v>63.763683</v>
       </c>
       <c r="O8">
-        <v>0.1543810849574131</v>
+        <v>0.1482105374854993</v>
       </c>
       <c r="P8">
-        <v>0.1543810849574131</v>
+        <v>0.1546805702623864</v>
       </c>
       <c r="Q8">
-        <v>7.615303473073841</v>
+        <v>3.102832917877667</v>
       </c>
       <c r="R8">
-        <v>7.615303473073841</v>
+        <v>27.925496260899</v>
       </c>
       <c r="S8">
-        <v>0.001493734499344844</v>
+        <v>0.0005458797057734656</v>
       </c>
       <c r="T8">
-        <v>0.001493734499344844</v>
+        <v>0.0005716165209209808</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.374020208832357</v>
+        <v>0.1459843333333333</v>
       </c>
       <c r="H9">
-        <v>0.374020208832357</v>
+        <v>0.437953</v>
       </c>
       <c r="I9">
-        <v>0.009675631569482103</v>
+        <v>0.003683136941776988</v>
       </c>
       <c r="J9">
-        <v>0.009675631569482103</v>
+        <v>0.003695464271636322</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>37.0026247316362</v>
+        <v>46.05851666666666</v>
       </c>
       <c r="N9">
-        <v>37.0026247316362</v>
+        <v>138.17555</v>
       </c>
       <c r="O9">
-        <v>0.2805656337128871</v>
+        <v>0.3211714187346186</v>
       </c>
       <c r="P9">
-        <v>0.2805656337128871</v>
+        <v>0.3351919441403484</v>
       </c>
       <c r="Q9">
-        <v>13.83972942947191</v>
+        <v>6.723821849905555</v>
       </c>
       <c r="R9">
-        <v>13.83972942947191</v>
+        <v>60.51439664914999</v>
       </c>
       <c r="S9">
-        <v>0.002714649702864163</v>
+        <v>0.0011829183169844</v>
       </c>
       <c r="T9">
-        <v>0.002714649702864163</v>
+        <v>0.001238689853710975</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.374020208832357</v>
+        <v>0.1459843333333333</v>
       </c>
       <c r="H10">
-        <v>0.374020208832357</v>
+        <v>0.437953</v>
       </c>
       <c r="I10">
-        <v>0.009675631569482103</v>
+        <v>0.003683136941776988</v>
       </c>
       <c r="J10">
-        <v>0.009675631569482103</v>
+        <v>0.003695464271636322</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>54.9622254901925</v>
+        <v>56.290605</v>
       </c>
       <c r="N10">
-        <v>54.9622254901925</v>
+        <v>168.871815</v>
       </c>
       <c r="O10">
-        <v>0.4167410213941487</v>
+        <v>0.3925209663203081</v>
       </c>
       <c r="P10">
-        <v>0.4167410213941487</v>
+        <v>0.4096562089339196</v>
       </c>
       <c r="Q10">
-        <v>20.55698305573289</v>
+        <v>8.217546443854999</v>
       </c>
       <c r="R10">
-        <v>20.55698305573289</v>
+        <v>73.95791799469499</v>
       </c>
       <c r="S10">
-        <v>0.004032232582899442</v>
+        <v>0.001445708471476328</v>
       </c>
       <c r="T10">
-        <v>0.004032232582899442</v>
+        <v>0.001513869883769284</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,991 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.1459843333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.437953</v>
+      </c>
+      <c r="I11">
+        <v>0.003683136941776988</v>
+      </c>
+      <c r="J11">
+        <v>0.003695464271636322</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>17.995546</v>
+      </c>
+      <c r="N11">
+        <v>35.991092</v>
+      </c>
+      <c r="O11">
+        <v>0.1254850450689161</v>
+      </c>
+      <c r="P11">
+        <v>0.08730867435819248</v>
+      </c>
+      <c r="Q11">
+        <v>2.627067785779333</v>
+      </c>
+      <c r="R11">
+        <v>15.762406714676</v>
+      </c>
+      <c r="S11">
+        <v>0.0004621786051338753</v>
+      </c>
+      <c r="T11">
+        <v>0.0003226460866946306</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.236847</v>
+      </c>
+      <c r="H12">
+        <v>0.7105410000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.005975572277726522</v>
+      </c>
+      <c r="J12">
+        <v>0.005995572308062153</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.808665</v>
+      </c>
+      <c r="N12">
+        <v>5.425995</v>
+      </c>
+      <c r="O12">
+        <v>0.01261203239065773</v>
+      </c>
+      <c r="P12">
+        <v>0.01316260230515319</v>
+      </c>
+      <c r="Q12">
+        <v>0.4283768792550001</v>
+      </c>
+      <c r="R12">
+        <v>3.855391913295001</v>
+      </c>
+      <c r="S12">
+        <v>7.53641111194033E-05</v>
+      </c>
+      <c r="T12">
+        <v>7.891733388281154E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.236847</v>
+      </c>
+      <c r="H13">
+        <v>0.7105410000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.005975572277726522</v>
+      </c>
+      <c r="J13">
+        <v>0.005995572308062153</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>21.254561</v>
+      </c>
+      <c r="N13">
+        <v>63.763683</v>
+      </c>
+      <c r="O13">
+        <v>0.1482105374854993</v>
+      </c>
+      <c r="P13">
+        <v>0.1546805702623864</v>
+      </c>
+      <c r="Q13">
+        <v>5.034079009167001</v>
+      </c>
+      <c r="R13">
+        <v>45.30671108250301</v>
+      </c>
+      <c r="S13">
+        <v>0.0008856427790652972</v>
+      </c>
+      <c r="T13">
+        <v>0.0009273985436604261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.236847</v>
+      </c>
+      <c r="H14">
+        <v>0.7105410000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.005975572277726522</v>
+      </c>
+      <c r="J14">
+        <v>0.005995572308062153</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>46.05851666666666</v>
+      </c>
+      <c r="N14">
+        <v>138.17555</v>
+      </c>
+      <c r="O14">
+        <v>0.3211714187346186</v>
+      </c>
+      <c r="P14">
+        <v>0.3351919441403484</v>
+      </c>
+      <c r="Q14">
+        <v>10.90882149695</v>
+      </c>
+      <c r="R14">
+        <v>98.17939347255</v>
+      </c>
+      <c r="S14">
+        <v>0.001919183026188683</v>
+      </c>
+      <c r="T14">
+        <v>0.002009667538173389</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.236847</v>
+      </c>
+      <c r="H15">
+        <v>0.7105410000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.005975572277726522</v>
+      </c>
+      <c r="J15">
+        <v>0.005995572308062153</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>56.290605</v>
+      </c>
+      <c r="N15">
+        <v>168.871815</v>
+      </c>
+      <c r="O15">
+        <v>0.3925209663203081</v>
+      </c>
+      <c r="P15">
+        <v>0.4096562089339196</v>
+      </c>
+      <c r="Q15">
+        <v>13.332260922435</v>
+      </c>
+      <c r="R15">
+        <v>119.990348301915</v>
+      </c>
+      <c r="S15">
+        <v>0.002345537404770059</v>
+      </c>
+      <c r="T15">
+        <v>0.002456123422109932</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.236847</v>
+      </c>
+      <c r="H16">
+        <v>0.7105410000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.005975572277726522</v>
+      </c>
+      <c r="J16">
+        <v>0.005995572308062153</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>17.995546</v>
+      </c>
+      <c r="N16">
+        <v>35.991092</v>
+      </c>
+      <c r="O16">
+        <v>0.1254850450689161</v>
+      </c>
+      <c r="P16">
+        <v>0.08730867435819248</v>
+      </c>
+      <c r="Q16">
+        <v>4.262191083462</v>
+      </c>
+      <c r="R16">
+        <v>25.573146500772</v>
+      </c>
+      <c r="S16">
+        <v>0.0007498449565830784</v>
+      </c>
+      <c r="T16">
+        <v>0.000523465470235595</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.053283</v>
+      </c>
+      <c r="H17">
+        <v>0.159849</v>
+      </c>
+      <c r="I17">
+        <v>0.001344312647718157</v>
+      </c>
+      <c r="J17">
+        <v>0.001348812014889257</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.808665</v>
+      </c>
+      <c r="N17">
+        <v>5.425995</v>
+      </c>
+      <c r="O17">
+        <v>0.01261203239065773</v>
+      </c>
+      <c r="P17">
+        <v>0.01316260230515319</v>
+      </c>
+      <c r="Q17">
+        <v>0.09637109719500002</v>
+      </c>
+      <c r="R17">
+        <v>0.8673398747550002</v>
+      </c>
+      <c r="S17">
+        <v>1.695451465619225E-05</v>
+      </c>
+      <c r="T17">
+        <v>1.775387613639965E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.374020208832357</v>
-      </c>
-      <c r="H11">
-        <v>0.374020208832357</v>
-      </c>
-      <c r="I11">
-        <v>0.009675631569482103</v>
-      </c>
-      <c r="J11">
-        <v>0.009675631569482103</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>17.8765391065461</v>
-      </c>
-      <c r="N11">
-        <v>17.8765391065461</v>
-      </c>
-      <c r="O11">
-        <v>0.1355455878980706</v>
-      </c>
-      <c r="P11">
-        <v>0.1355455878980706</v>
-      </c>
-      <c r="Q11">
-        <v>6.686186889830169</v>
-      </c>
-      <c r="R11">
-        <v>6.686186889830169</v>
-      </c>
-      <c r="S11">
-        <v>0.001311489169370583</v>
-      </c>
-      <c r="T11">
-        <v>0.001311489169370583</v>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.053283</v>
+      </c>
+      <c r="H18">
+        <v>0.159849</v>
+      </c>
+      <c r="I18">
+        <v>0.001344312647718157</v>
+      </c>
+      <c r="J18">
+        <v>0.001348812014889257</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>21.254561</v>
+      </c>
+      <c r="N18">
+        <v>63.763683</v>
+      </c>
+      <c r="O18">
+        <v>0.1482105374854993</v>
+      </c>
+      <c r="P18">
+        <v>0.1546805702623864</v>
+      </c>
+      <c r="Q18">
+        <v>1.132506773763</v>
+      </c>
+      <c r="R18">
+        <v>10.192560963867</v>
+      </c>
+      <c r="S18">
+        <v>0.0001992413000668627</v>
+      </c>
+      <c r="T18">
+        <v>0.0002086350116398286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.053283</v>
+      </c>
+      <c r="H19">
+        <v>0.159849</v>
+      </c>
+      <c r="I19">
+        <v>0.001344312647718157</v>
+      </c>
+      <c r="J19">
+        <v>0.001348812014889257</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>46.05851666666666</v>
+      </c>
+      <c r="N19">
+        <v>138.17555</v>
+      </c>
+      <c r="O19">
+        <v>0.3211714187346186</v>
+      </c>
+      <c r="P19">
+        <v>0.3351919441403484</v>
+      </c>
+      <c r="Q19">
+        <v>2.45413594355</v>
+      </c>
+      <c r="R19">
+        <v>22.08722349195</v>
+      </c>
+      <c r="S19">
+        <v>0.0004317548002905319</v>
+      </c>
+      <c r="T19">
+        <v>0.0004521109215505905</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.053283</v>
+      </c>
+      <c r="H20">
+        <v>0.159849</v>
+      </c>
+      <c r="I20">
+        <v>0.001344312647718157</v>
+      </c>
+      <c r="J20">
+        <v>0.001348812014889257</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>56.290605</v>
+      </c>
+      <c r="N20">
+        <v>168.871815</v>
+      </c>
+      <c r="O20">
+        <v>0.3925209663203081</v>
+      </c>
+      <c r="P20">
+        <v>0.4096562089339196</v>
+      </c>
+      <c r="Q20">
+        <v>2.999332306215</v>
+      </c>
+      <c r="R20">
+        <v>26.993990755935</v>
+      </c>
+      <c r="S20">
+        <v>0.0005276708995189428</v>
+      </c>
+      <c r="T20">
+        <v>0.0005525492165840543</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.053283</v>
+      </c>
+      <c r="H21">
+        <v>0.159849</v>
+      </c>
+      <c r="I21">
+        <v>0.001344312647718157</v>
+      </c>
+      <c r="J21">
+        <v>0.001348812014889257</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>17.995546</v>
+      </c>
+      <c r="N21">
+        <v>35.991092</v>
+      </c>
+      <c r="O21">
+        <v>0.1254850450689161</v>
+      </c>
+      <c r="P21">
+        <v>0.08730867435819248</v>
+      </c>
+      <c r="Q21">
+        <v>0.9588566775180001</v>
+      </c>
+      <c r="R21">
+        <v>5.753140065108001</v>
+      </c>
+      <c r="S21">
+        <v>0.0001686911331856269</v>
+      </c>
+      <c r="T21">
+        <v>0.0001177629889783836</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.396652</v>
+      </c>
+      <c r="H22">
+        <v>0.793304</v>
+      </c>
+      <c r="I22">
+        <v>0.01000740011528447</v>
+      </c>
+      <c r="J22">
+        <v>0.006693929687765996</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.808665</v>
+      </c>
+      <c r="N22">
+        <v>5.425995</v>
+      </c>
+      <c r="O22">
+        <v>0.01261203239065773</v>
+      </c>
+      <c r="P22">
+        <v>0.01316260230515319</v>
+      </c>
+      <c r="Q22">
+        <v>0.71741058958</v>
+      </c>
+      <c r="R22">
+        <v>4.30446353748</v>
+      </c>
+      <c r="S22">
+        <v>0.0001262136544002396</v>
+      </c>
+      <c r="T22">
+        <v>8.810953433872208E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.396652</v>
+      </c>
+      <c r="H23">
+        <v>0.793304</v>
+      </c>
+      <c r="I23">
+        <v>0.01000740011528447</v>
+      </c>
+      <c r="J23">
+        <v>0.006693929687765996</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>21.254561</v>
+      </c>
+      <c r="N23">
+        <v>63.763683</v>
+      </c>
+      <c r="O23">
+        <v>0.1482105374854993</v>
+      </c>
+      <c r="P23">
+        <v>0.1546805702623864</v>
+      </c>
+      <c r="Q23">
+        <v>8.430664129772</v>
+      </c>
+      <c r="R23">
+        <v>50.583984778632</v>
+      </c>
+      <c r="S23">
+        <v>0.001483202149918758</v>
+      </c>
+      <c r="T23">
+        <v>0.001035420861399962</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.396652</v>
+      </c>
+      <c r="H24">
+        <v>0.793304</v>
+      </c>
+      <c r="I24">
+        <v>0.01000740011528447</v>
+      </c>
+      <c r="J24">
+        <v>0.006693929687765996</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>46.05851666666666</v>
+      </c>
+      <c r="N24">
+        <v>138.17555</v>
+      </c>
+      <c r="O24">
+        <v>0.3211714187346186</v>
+      </c>
+      <c r="P24">
+        <v>0.3351919441403484</v>
+      </c>
+      <c r="Q24">
+        <v>18.26920275286666</v>
+      </c>
+      <c r="R24">
+        <v>109.6152165172</v>
+      </c>
+      <c r="S24">
+        <v>0.003214090892870898</v>
+      </c>
+      <c r="T24">
+        <v>0.002243751305981079</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.396652</v>
+      </c>
+      <c r="H25">
+        <v>0.793304</v>
+      </c>
+      <c r="I25">
+        <v>0.01000740011528447</v>
+      </c>
+      <c r="J25">
+        <v>0.006693929687765996</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>56.290605</v>
+      </c>
+      <c r="N25">
+        <v>168.871815</v>
+      </c>
+      <c r="O25">
+        <v>0.3925209663203081</v>
+      </c>
+      <c r="P25">
+        <v>0.4096562089339196</v>
+      </c>
+      <c r="Q25">
+        <v>22.32778105446</v>
+      </c>
+      <c r="R25">
+        <v>133.96668632676</v>
+      </c>
+      <c r="S25">
+        <v>0.003928114363605422</v>
+      </c>
+      <c r="T25">
+        <v>0.002742209858760434</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.396652</v>
+      </c>
+      <c r="H26">
+        <v>0.793304</v>
+      </c>
+      <c r="I26">
+        <v>0.01000740011528447</v>
+      </c>
+      <c r="J26">
+        <v>0.006693929687765996</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>17.995546</v>
+      </c>
+      <c r="N26">
+        <v>35.991092</v>
+      </c>
+      <c r="O26">
+        <v>0.1254850450689161</v>
+      </c>
+      <c r="P26">
+        <v>0.08730867435819248</v>
+      </c>
+      <c r="Q26">
+        <v>7.137969311992</v>
+      </c>
+      <c r="R26">
+        <v>28.551877247968</v>
+      </c>
+      <c r="S26">
+        <v>0.001255779054489148</v>
+      </c>
+      <c r="T26">
+        <v>0.0005844381272857984</v>
       </c>
     </row>
   </sheetData>
